--- a/outputs/room_timetables/C203.xlsx
+++ b/outputs/room_timetables/C203.xlsx
@@ -713,12 +713,16 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" s="3" t="inlineStr">
-        <is>
-          <t>CS161 | Problem Solving through Programming | Dr. Animesh Roy | C203</t>
-        </is>
-      </c>
+      <c r="R3" s="3" t="inlineStr">
+        <is>
+          <t>New | Semiconductor Devices | Dr. Pankaj Kumar | C203</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
@@ -865,9 +869,9 @@
     <mergeCell ref="N4:U4"/>
     <mergeCell ref="G5:L5"/>
     <mergeCell ref="I3:L3"/>
-    <mergeCell ref="N3:U3"/>
+    <mergeCell ref="R3:W3"/>
     <mergeCell ref="N6:U6"/>
-    <mergeCell ref="W3:AB3"/>
+    <mergeCell ref="N3:Q3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="N2:U2"/>
     <mergeCell ref="B2:E2"/>
